--- a/SEGUNDO_SEMESTRE/Estadistica/FernandaNunez/dif_semanal_Vfarnesiana_2.xlsx
+++ b/SEGUNDO_SEMESTRE/Estadistica/FernandaNunez/dif_semanal_Vfarnesiana_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25fe2a06eeca41a/Documentos/MCD/SEGUNDO_SEMESTRE/Estadistica/FernandaNunez/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\OneDrive\Documentos\MCD\SEGUNDO_SEMESTRE\Estadistica\FernandaNunez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D8A311-C5D7-4D7E-9AC8-8FBCE2ED7987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80899827-6B5C-48C1-9A90-BD91D8CEA999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{504CE928-D6D4-4A05-A38F-35A2AD490E3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>Réplica</t>
   </si>
@@ -417,11 +417,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A34964-80AA-4714-96F6-B75B37F15972}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -469,7 +467,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -478,12 +476,12 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -492,12 +490,12 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -506,12 +504,12 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -520,12 +518,12 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -534,12 +532,12 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -548,12 +546,12 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -562,26 +560,26 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -595,7 +593,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -604,12 +602,12 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -623,7 +621,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -632,12 +630,12 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -646,18 +644,18 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -665,13 +663,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -679,13 +677,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -693,27 +691,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -721,27 +719,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -749,69 +747,69 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -819,323 +817,155 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>85</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51">
         <v>1</v>
       </c>
     </row>
